--- a/LS2/Počítačové sítě/zkouskove otazky.xlsx
+++ b/LS2/Počítačové sítě/zkouskove otazky.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOGARE\Stažené soubory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\mff\LS2\Počítačové sítě\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,11 @@
     <sheet name="otazky" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="236">
   <si>
     <t>Průběh zkoušky:</t>
   </si>
@@ -909,12 +908,18 @@
   <si>
     <t>vrstvy = aplikacni - zprava, transportni - segment, sitova - packet, linkova - bunka/ramec; rozdil je ve vrstvach</t>
   </si>
+  <si>
+    <t>co delat kdyz se ztrati/rozbijou data; bud se postarat o napravu, nebo to nechat tak jak je; rozhodovani mezi rychlosti s chybami proti pomalosti a spravnosti</t>
+  </si>
+  <si>
+    <t>best effort = maximalni snaha, ale nezaruceny vysledek; QoS je zbytek, napr garantovane sluzby</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1086,19 +1091,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1162,6 +1154,19 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1176,12 +1181,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabulka3" displayName="Tabulka3" ref="A1:C217" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabulka3" displayName="Tabulka3" ref="A1:C217" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:C217"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="3"/>
-    <tableColumn id="2" name="Otázky k lekci č. 1: Základní pojmy a paradigmata počítačových sítí" dataDxfId="2"/>
-    <tableColumn id="3" name="Odpovedi" dataDxfId="1"/>
+    <tableColumn id="1" name="#" dataDxfId="2"/>
+    <tableColumn id="2" name="Otázky k lekci č. 1: Základní pojmy a paradigmata počítačových sítí" dataDxfId="1"/>
+    <tableColumn id="3" name="Odpovedi" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1478,101 +1483,101 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="254.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="102">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="25.5">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1588,19 +1593,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="145.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.54296875" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="145.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.5703125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="37.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>230</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1633,7 +1638,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1688,23 +1693,29 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1712,7 +1723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1720,7 +1731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1728,7 +1739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1736,7 +1747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1744,7 +1755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1760,7 +1771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1768,7 +1779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1776,7 +1787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1784,7 +1795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1792,7 +1803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1800,10 +1811,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="17" customFormat="1">
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A24" s="14" t="s">
         <v>230</v>
       </c>
@@ -1812,7 +1823,7 @@
       </c>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="10">
         <v>1</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -1836,7 +1847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -1844,7 +1855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" s="10">
         <v>5</v>
       </c>
@@ -1852,7 +1863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="10">
         <v>7</v>
       </c>
@@ -1868,7 +1879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="10">
         <v>8</v>
       </c>
@@ -1876,7 +1887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -1884,7 +1895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -1900,7 +1911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="10">
         <v>13</v>
       </c>
@@ -1916,7 +1927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="10">
         <v>14</v>
       </c>
@@ -1924,7 +1935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="10">
         <v>15</v>
       </c>
@@ -1932,7 +1943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="10">
         <v>16</v>
       </c>
@@ -1940,7 +1951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="10">
         <v>17</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="10">
         <v>18</v>
       </c>
@@ -1956,7 +1967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" s="10">
         <v>19</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" s="10">
         <v>20</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" s="10">
         <v>21</v>
       </c>
@@ -1980,10 +1991,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="17" customFormat="1">
       <c r="C46" s="23"/>
     </row>
-    <row r="47" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A47" s="14" t="s">
         <v>230</v>
       </c>
@@ -1992,7 +2003,7 @@
       </c>
       <c r="C47" s="21"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -2000,7 +2011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="6">
         <v>2</v>
       </c>
@@ -2008,7 +2019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="6">
         <v>3</v>
       </c>
@@ -2016,7 +2027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="6">
         <v>4</v>
       </c>
@@ -2024,7 +2035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="6">
         <v>5</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="6">
         <v>6</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="6">
         <v>7</v>
       </c>
@@ -2048,7 +2059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="6">
         <v>8</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="6">
         <v>9</v>
       </c>
@@ -2064,7 +2075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="6">
         <v>10</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="6">
         <v>11</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="6">
         <v>12</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="6">
         <v>13</v>
       </c>
@@ -2096,7 +2107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="6">
         <v>14</v>
       </c>
@@ -2104,7 +2115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="6">
         <v>15</v>
       </c>
@@ -2112,7 +2123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="6">
         <v>16</v>
       </c>
@@ -2120,7 +2131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="6">
         <v>17</v>
       </c>
@@ -2128,7 +2139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" s="6">
         <v>18</v>
       </c>
@@ -2136,10 +2147,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" s="17" customFormat="1">
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A67" s="14" t="s">
         <v>230</v>
       </c>
@@ -2148,7 +2159,7 @@
       </c>
       <c r="C67" s="21"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -2156,7 +2167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" s="6">
         <v>2</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" s="6">
         <v>3</v>
       </c>
@@ -2172,7 +2183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" s="6">
         <v>4</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" s="6">
         <v>5</v>
       </c>
@@ -2188,7 +2199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" s="6">
         <v>6</v>
       </c>
@@ -2196,7 +2207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" s="6">
         <v>7</v>
       </c>
@@ -2204,7 +2215,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" s="6">
         <v>8</v>
       </c>
@@ -2212,7 +2223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" s="6">
         <v>9</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" s="6">
         <v>10</v>
       </c>
@@ -2228,7 +2239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" s="6">
         <v>11</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" s="6">
         <v>12</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" s="6">
         <v>13</v>
       </c>
@@ -2252,7 +2263,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" s="6">
         <v>14</v>
       </c>
@@ -2260,7 +2271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" s="6">
         <v>15</v>
       </c>
@@ -2268,7 +2279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" s="6">
         <v>16</v>
       </c>
@@ -2276,7 +2287,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" s="6">
         <v>17</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" s="6">
         <v>18</v>
       </c>
@@ -2292,7 +2303,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" s="6">
         <v>19</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" s="6">
         <v>20</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" s="6">
         <v>21</v>
       </c>
@@ -2316,7 +2327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" s="6">
         <v>22</v>
       </c>
@@ -2324,7 +2335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" s="6">
         <v>23</v>
       </c>
@@ -2332,10 +2343,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" s="17" customFormat="1">
       <c r="C91" s="23"/>
     </row>
-    <row r="92" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A92" s="14" t="s">
         <v>230</v>
       </c>
@@ -2344,7 +2355,7 @@
       </c>
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -2352,7 +2363,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" s="6">
         <v>2</v>
       </c>
@@ -2360,7 +2371,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" s="6">
         <v>3</v>
       </c>
@@ -2368,7 +2379,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" s="6">
         <v>4</v>
       </c>
@@ -2376,7 +2387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="6">
         <v>5</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="6">
         <v>6</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="6">
         <v>7</v>
       </c>
@@ -2400,7 +2411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="6">
         <v>8</v>
       </c>
@@ -2408,7 +2419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" s="6">
         <v>9</v>
       </c>
@@ -2416,7 +2427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" s="6">
         <v>10</v>
       </c>
@@ -2424,7 +2435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" s="6">
         <v>11</v>
       </c>
@@ -2432,7 +2443,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" s="6">
         <v>12</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" s="6">
         <v>13</v>
       </c>
@@ -2448,7 +2459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" s="6">
         <v>14</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" s="6">
         <v>15</v>
       </c>
@@ -2464,7 +2475,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" s="6">
         <v>16</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" s="6">
         <v>17</v>
       </c>
@@ -2480,7 +2491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" s="6">
         <v>18</v>
       </c>
@@ -2488,7 +2499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" s="6">
         <v>19</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" s="6">
         <v>20</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" s="6">
         <v>21</v>
       </c>
@@ -2512,7 +2523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" s="6">
         <v>22</v>
       </c>
@@ -2520,7 +2531,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" s="6">
         <v>23</v>
       </c>
@@ -2528,7 +2539,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" s="6">
         <v>24</v>
       </c>
@@ -2536,10 +2547,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" s="17" customFormat="1">
       <c r="C117" s="23"/>
     </row>
-    <row r="118" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A118" s="14" t="s">
         <v>230</v>
       </c>
@@ -2548,7 +2559,7 @@
       </c>
       <c r="C118" s="21"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" s="7">
         <v>1</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" s="7">
         <v>2</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" s="7">
         <v>3</v>
       </c>
@@ -2572,7 +2583,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" s="7">
         <v>4</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" s="7">
         <v>5</v>
       </c>
@@ -2588,7 +2599,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" s="7">
         <v>6</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" s="7">
         <v>7</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" s="7">
         <v>8</v>
       </c>
@@ -2612,7 +2623,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" s="7">
         <v>9</v>
       </c>
@@ -2620,7 +2631,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" s="7">
         <v>10</v>
       </c>
@@ -2628,7 +2639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" s="7">
         <v>11</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" s="7">
         <v>12</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" s="7">
         <v>13</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" s="7">
         <v>14</v>
       </c>
@@ -2660,7 +2671,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" s="7">
         <v>15</v>
       </c>
@@ -2668,10 +2679,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" s="17" customFormat="1">
       <c r="C134" s="23"/>
     </row>
-    <row r="135" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A135" s="14" t="s">
         <v>230</v>
       </c>
@@ -2680,7 +2691,7 @@
       </c>
       <c r="C135" s="21"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" s="7">
         <v>1</v>
       </c>
@@ -2688,7 +2699,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" s="7">
         <v>2</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" s="7">
         <v>3</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" s="7">
         <v>4</v>
       </c>
@@ -2712,7 +2723,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" s="7">
         <v>5</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" s="7">
         <v>6</v>
       </c>
@@ -2728,7 +2739,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" s="7">
         <v>7</v>
       </c>
@@ -2736,7 +2747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" s="7">
         <v>8</v>
       </c>
@@ -2744,7 +2755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" s="7">
         <v>9</v>
       </c>
@@ -2752,7 +2763,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" s="7">
         <v>10</v>
       </c>
@@ -2760,7 +2771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" s="7">
         <v>11</v>
       </c>
@@ -2768,7 +2779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" s="7">
         <v>12</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" s="7">
         <v>13</v>
       </c>
@@ -2784,7 +2795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" s="7">
         <v>14</v>
       </c>
@@ -2792,7 +2803,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" s="7">
         <v>15</v>
       </c>
@@ -2800,7 +2811,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" s="7">
         <v>16</v>
       </c>
@@ -2808,10 +2819,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" s="17" customFormat="1">
       <c r="C152" s="23"/>
     </row>
-    <row r="153" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A153" s="14" t="s">
         <v>230</v>
       </c>
@@ -2820,7 +2831,7 @@
       </c>
       <c r="C153" s="21"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" s="7">
         <v>1</v>
       </c>
@@ -2828,7 +2839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" s="7">
         <v>2</v>
       </c>
@@ -2836,7 +2847,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" s="7">
         <v>3</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" s="7">
         <v>4</v>
       </c>
@@ -2852,7 +2863,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" s="7">
         <v>5</v>
       </c>
@@ -2860,7 +2871,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" s="7">
         <v>6</v>
       </c>
@@ -2868,7 +2879,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" s="7">
         <v>7</v>
       </c>
@@ -2876,7 +2887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" s="7">
         <v>8</v>
       </c>
@@ -2884,7 +2895,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" s="7">
         <v>9</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" s="7">
         <v>10</v>
       </c>
@@ -2900,7 +2911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" s="7">
         <v>11</v>
       </c>
@@ -2908,7 +2919,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" s="7">
         <v>12</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" s="7">
         <v>13</v>
       </c>
@@ -2924,7 +2935,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" s="7">
         <v>14</v>
       </c>
@@ -2932,7 +2943,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" s="7">
         <v>15</v>
       </c>
@@ -2940,7 +2951,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" s="7">
         <v>16</v>
       </c>
@@ -2948,7 +2959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" s="7">
         <v>17</v>
       </c>
@@ -2956,7 +2967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" s="7">
         <v>18</v>
       </c>
@@ -2964,7 +2975,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" s="7">
         <v>19</v>
       </c>
@@ -2972,7 +2983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" s="7">
         <v>20</v>
       </c>
@@ -2980,10 +2991,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" s="17" customFormat="1">
       <c r="C174" s="23"/>
     </row>
-    <row r="175" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A175" s="14" t="s">
         <v>230</v>
       </c>
@@ -2992,7 +3003,7 @@
       </c>
       <c r="C175" s="21"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" s="7">
         <v>1</v>
       </c>
@@ -3000,7 +3011,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" s="7">
         <v>2</v>
       </c>
@@ -3008,7 +3019,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" s="7">
         <v>3</v>
       </c>
@@ -3016,7 +3027,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" s="7">
         <v>4</v>
       </c>
@@ -3024,7 +3035,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" s="7">
         <v>5</v>
       </c>
@@ -3032,7 +3043,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" s="7">
         <v>6</v>
       </c>
@@ -3040,7 +3051,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" s="7">
         <v>7</v>
       </c>
@@ -3048,7 +3059,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" s="7">
         <v>8</v>
       </c>
@@ -3056,7 +3067,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" s="7">
         <v>9</v>
       </c>
@@ -3064,7 +3075,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" s="7">
         <v>10</v>
       </c>
@@ -3072,7 +3083,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" s="7">
         <v>11</v>
       </c>
@@ -3080,7 +3091,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" s="7">
         <v>12</v>
       </c>
@@ -3088,7 +3099,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" s="7">
         <v>13</v>
       </c>
@@ -3096,7 +3107,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" s="7">
         <v>14</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" s="7">
         <v>15</v>
       </c>
@@ -3112,7 +3123,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" s="7">
         <v>16</v>
       </c>
@@ -3120,10 +3131,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" s="17" customFormat="1">
       <c r="C192" s="23"/>
     </row>
-    <row r="193" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A193" s="14" t="s">
         <v>230</v>
       </c>
@@ -3132,7 +3143,7 @@
       </c>
       <c r="C193" s="21"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" s="7">
         <v>1</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" s="7">
         <v>2</v>
       </c>
@@ -3148,7 +3159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" s="7">
         <v>3</v>
       </c>
@@ -3156,7 +3167,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" s="7">
         <v>4</v>
       </c>
@@ -3164,7 +3175,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" s="7">
         <v>5</v>
       </c>
@@ -3172,7 +3183,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" s="7">
         <v>6</v>
       </c>
@@ -3180,7 +3191,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="7">
         <v>7</v>
       </c>
@@ -3188,7 +3199,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="7">
         <v>8</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="7">
         <v>9</v>
       </c>
@@ -3204,7 +3215,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="7">
         <v>10</v>
       </c>
@@ -3212,7 +3223,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="7">
         <v>11</v>
       </c>
@@ -3220,7 +3231,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="7">
         <v>12</v>
       </c>
@@ -3228,7 +3239,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="7">
         <v>13</v>
       </c>
@@ -3236,10 +3247,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" s="17" customFormat="1">
       <c r="C207" s="23"/>
     </row>
-    <row r="208" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" s="24" customFormat="1" ht="26.25">
       <c r="A208" s="14" t="s">
         <v>230</v>
       </c>
@@ -3248,7 +3259,7 @@
       </c>
       <c r="C208" s="21"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2">
       <c r="A209" s="13">
         <v>1</v>
       </c>
@@ -3256,7 +3267,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2">
       <c r="A210" s="13">
         <v>2</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2">
       <c r="A211" s="13">
         <v>3</v>
       </c>
@@ -3272,7 +3283,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2">
       <c r="A212" s="13">
         <v>4</v>
       </c>
@@ -3280,7 +3291,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2">
       <c r="A213" s="13">
         <v>5</v>
       </c>
@@ -3288,7 +3299,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2">
       <c r="A214" s="13">
         <v>6</v>
       </c>
@@ -3296,7 +3307,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2">
       <c r="A215" s="13">
         <v>7</v>
       </c>
@@ -3304,7 +3315,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2">
       <c r="A216" s="13">
         <v>8</v>
       </c>
@@ -3312,7 +3323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2">
       <c r="A217" s="13">
         <v>9</v>
       </c>

--- a/LS2/Počítačové sítě/zkouskove otazky.xlsx
+++ b/LS2/Počítačové sítě/zkouskove otazky.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\mff\LS2\Počítačové sítě\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\mff\LS2\Počítačové sítě\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="281">
   <si>
     <t>Průběh zkoušky:</t>
   </si>
@@ -914,12 +914,147 @@
   <si>
     <t>best effort = maximalni snaha, ale nezaruceny vysledek; QoS je zbytek, napr garantovane sluzby</t>
   </si>
+  <si>
+    <t>mezi komunikujícími stranami se vytvoří (souvislý) přenosový okruh</t>
+  </si>
+  <si>
+    <t>obecný princip, jak přenášet data, na bázi sdílené přenosové kapacity</t>
+  </si>
+  <si>
+    <t>data prochazi frontou/bufferem</t>
+  </si>
+  <si>
+    <t>multimedia = pravidelne dorucovani, co nejmensi latence; datove aplikace = hlavni neni rychlost, ale spolehlivost</t>
+  </si>
+  <si>
+    <t>(ne)garantuji ze bude dostatek zdroju pro prenos dat -&gt; velmi levne(drahe)</t>
+  </si>
+  <si>
+    <t>negarantova sluzba, zahazujici data, ktera se nestihaji prenaset, cachovat nebo zpracovavat</t>
+  </si>
+  <si>
+    <t>presny opak BestEffort, neco garantuje nebo rozlisuje zpusob provozu a nabizi jim ruzne zachazeni; ma system priorit</t>
+  </si>
+  <si>
+    <t>hloupá síť, chytré uzly</t>
+  </si>
+  <si>
+    <t>chytrá síť, hloupá koncová zařízení</t>
+  </si>
+  <si>
+    <t>telekomunikace = vychází z předpokladu, že dostupných zdrojů je málo; pocitace = vychází z předpokladu, že zdrojů je dostatek</t>
+  </si>
+  <si>
+    <t>telekomunikace byly regulovany statem jako strategicka vyhoda, pozdeji liberalizovany; mpocitace liberizovane od pocatku, ale je treba je standartizovat a koordinovat</t>
+  </si>
+  <si>
+    <t>Moor = vypocetni kapacita se zdvojnasobuje kazde dva roky; Gilberg = prenosova kapacita se ztrojnasobi za rok</t>
+  </si>
+  <si>
+    <t>zpusob fungovani, puvod, ucel, architektura, mobilita, topologie, vlastnicke vztahy k siti (VPN); nejsou</t>
+  </si>
+  <si>
+    <t>distribuce stejneho obsahu vsem (TV); obsah se dostane pouze ke svemu prijemci</t>
+  </si>
+  <si>
+    <t>telekomunikace = jednoucelove, site na miru; pocitacove = pouze prenasi data, ucel neresi</t>
+  </si>
+  <si>
+    <t>casti = paterni cast a pristupovou cast; POP = kde konci paterni sit; CP = kde je zakaznik; CPE = vybaveni u zakaznika</t>
+  </si>
+  <si>
+    <t>jsou huste, buduji se dopredu, prekonavaji verejne prostory (silnice); velmi nakladne budovani</t>
+  </si>
+  <si>
+    <t>posledni mile je u POP, prvni u zakaznika; vysoke naklady na zemni prace</t>
+  </si>
+  <si>
+    <t>podle mobility - plna, nomadicka (bez komunikace za pohybu, bez podpory</t>
+  </si>
+  <si>
+    <t>zreciklovani existujici site pro jiny ucel</t>
+  </si>
+  <si>
+    <t>posledni metr si resi zakaznik sam, bud dratove nebo bezdratove, posledni mile je vetsinou jen dvoubodovy spoj</t>
+  </si>
+  <si>
+    <t>vetsi propustnost; aktivni je napajen, pasivni se da zakopat + rozdil v udrzbe a rychlosti (pasivni vetsinou staci)</t>
+  </si>
+  <si>
+    <t>pasivni optika, kde "x" je H(home) nebo C(curb, obrubnik)</t>
+  </si>
+  <si>
+    <t>privatni = vlastnik je uzivatelem, nakladne, plna moc v rozhodovani; verejna = dostupna pro kohokoliv kdo zaplati, poskytuje sluzbu pro ostatni</t>
+  </si>
+  <si>
+    <t>VPN = pro firmy, virtualne to pro zakaznika vypada jako by mel celou sit pro sebe</t>
+  </si>
+  <si>
+    <t>podle dosahu site - WAN, MAN, LAN, PAN (od nejvetsi po nejmensi)</t>
+  </si>
+  <si>
+    <t>sit vznikla propojenim osobnich zarizenich - mobil, tablet, notebook, periferie</t>
+  </si>
+  <si>
+    <t>lokalni sit, je geograficky soustredena</t>
+  </si>
+  <si>
+    <t>metropolitni sit, propojuje LAN site</t>
+  </si>
+  <si>
+    <t>pokryva regiony, staty, kontinenty; slouzi k preklenuti vetsich vzdalenosti</t>
+  </si>
+  <si>
+    <t>NAN = sousedska sit; CAN = komunitni sit</t>
+  </si>
+  <si>
+    <t>male I znaci jakoukoliv sit, velke I znaci tu jednu celosvetovou sit; podle ucelu, intra je uvnitr firmy, extra je pro komunikaci se zakazniky</t>
+  </si>
+  <si>
+    <t>podle umisteni zdroju; server ma zdroje u sebe; P2P pak znaci zdroje roztrousene</t>
+  </si>
+  <si>
+    <t>velky problem sitove komunikace rozlozen na podproblemy jako u velkych SW projektu; kazda vrstva se da implementovat samostatne, neboli alternativne</t>
+  </si>
+  <si>
+    <t>kazda vrstva muze pouzivat sluzby vrstvy bezprostredne nizsi</t>
+  </si>
+  <si>
+    <t>vzdy komunikuji vrstvy na stejne urovni; komunikace mezi uzly v siti</t>
+  </si>
+  <si>
+    <t>protokol definuje pravidla komunikace na kazde vrstve, vzdy pouze pro jednu vrstvu</t>
+  </si>
+  <si>
+    <t>blok dat patrici urcitemu protokolu (blok sestaven podle pravidel protokolu); ramec, paket, bunka</t>
+  </si>
+  <si>
+    <t>princip posli zpravu a cekej; na nejspodnejsi L1 - fyzicka</t>
+  </si>
+  <si>
+    <t>architektura = TCP/IP (konkretni predstava o vrstvach; model = ISO/OSI (pouze predstava o vrstvach, bez protokolu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO (International Standards Organization), pro praxi byl nepouzitelny, mel definovat jak maji vypadat otevrene systemy, neobsahuje konkretni protokoly </t>
+  </si>
+  <si>
+    <t>uprednostnuje spolehlive prenosove sluzby a to ve vice vrstvach zaroven, pocita spis s rozlehlimi sitemi, nez s lokalnimi; mensi vazba na praxi, podpora QoS (vs BestEffort)</t>
+  </si>
+  <si>
+    <t>prenos jednotlivych bitu; kodovani, modulace, casovani, synchronizace</t>
+  </si>
+  <si>
+    <t>prenos celych bloku dat; rizeni pristupu, rozpoznavani zacatku a konce ramce</t>
+  </si>
+  <si>
+    <t>doprait bloky dat (pakety) od zdroje do cile; smerovani (routing), forwarding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1019,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1082,6 +1217,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,101 +1621,101 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="72.75" customHeight="1">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" ht="254.25" customHeight="1">
+    <row r="5" spans="1:1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="102">
+    <row r="8" spans="1:1" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="25.5">
+    <row r="24" spans="1:1" ht="25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1593,19 +1731,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="145.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.5703125" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="5.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="145.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="169.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="37.5" customHeight="1">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>230</v>
       </c>
@@ -1616,7 +1754,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1627,7 +1765,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1638,7 +1776,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1649,7 +1787,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1660,7 +1798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1671,7 +1809,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1682,7 +1820,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1693,7 +1831,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1704,7 +1842,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1715,106 +1853,142 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="17" customFormat="1">
+      <c r="C22" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="24" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14" t="s">
         <v>230</v>
       </c>
@@ -1823,178 +1997,241 @@
       </c>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>1</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>3</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>4</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>6</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>7</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>8</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>9</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>10</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>11</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>12</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>13</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>14</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>15</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>16</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>17</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>18</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>20</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>21</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" s="17" customFormat="1">
+      <c r="C45" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="23"/>
     </row>
-    <row r="47" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="47" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="14" t="s">
         <v>230</v>
       </c>
@@ -2003,103 +2240,139 @@
       </c>
       <c r="C47" s="21"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>1</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>5</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>6</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>7</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>8</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>9</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>10</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>11</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>12</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>13</v>
       </c>
@@ -2107,7 +2380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>14</v>
       </c>
@@ -2115,7 +2388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>15</v>
       </c>
@@ -2123,7 +2396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>16</v>
       </c>
@@ -2131,7 +2404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>17</v>
       </c>
@@ -2139,7 +2412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>18</v>
       </c>
@@ -2147,10 +2420,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="17" customFormat="1">
+    <row r="66" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="67" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="14" t="s">
         <v>230</v>
       </c>
@@ -2159,7 +2432,7 @@
       </c>
       <c r="C67" s="21"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>1</v>
       </c>
@@ -2167,7 +2440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>2</v>
       </c>
@@ -2175,7 +2448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>3</v>
       </c>
@@ -2183,7 +2456,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>4</v>
       </c>
@@ -2191,7 +2464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>5</v>
       </c>
@@ -2199,7 +2472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>6</v>
       </c>
@@ -2207,7 +2480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>7</v>
       </c>
@@ -2215,7 +2488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>8</v>
       </c>
@@ -2223,7 +2496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>9</v>
       </c>
@@ -2231,7 +2504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>10</v>
       </c>
@@ -2239,7 +2512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>11</v>
       </c>
@@ -2247,7 +2520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>12</v>
       </c>
@@ -2255,7 +2528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>13</v>
       </c>
@@ -2263,7 +2536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>14</v>
       </c>
@@ -2271,7 +2544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>15</v>
       </c>
@@ -2279,7 +2552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>16</v>
       </c>
@@ -2287,7 +2560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>17</v>
       </c>
@@ -2295,7 +2568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>18</v>
       </c>
@@ -2303,7 +2576,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>19</v>
       </c>
@@ -2311,7 +2584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>20</v>
       </c>
@@ -2319,7 +2592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>21</v>
       </c>
@@ -2327,7 +2600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>22</v>
       </c>
@@ -2335,7 +2608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>23</v>
       </c>
@@ -2343,10 +2616,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="17" customFormat="1">
+    <row r="91" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C91" s="23"/>
     </row>
-    <row r="92" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="92" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="14" t="s">
         <v>230</v>
       </c>
@@ -2355,7 +2628,7 @@
       </c>
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -2363,7 +2636,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>2</v>
       </c>
@@ -2371,7 +2644,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>3</v>
       </c>
@@ -2379,7 +2652,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>4</v>
       </c>
@@ -2387,7 +2660,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>5</v>
       </c>
@@ -2395,7 +2668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>6</v>
       </c>
@@ -2403,7 +2676,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>7</v>
       </c>
@@ -2411,7 +2684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>8</v>
       </c>
@@ -2419,7 +2692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>9</v>
       </c>
@@ -2427,7 +2700,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>10</v>
       </c>
@@ -2435,7 +2708,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>11</v>
       </c>
@@ -2443,7 +2716,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>12</v>
       </c>
@@ -2451,7 +2724,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>13</v>
       </c>
@@ -2459,7 +2732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>14</v>
       </c>
@@ -2467,7 +2740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>15</v>
       </c>
@@ -2475,7 +2748,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>16</v>
       </c>
@@ -2483,7 +2756,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>17</v>
       </c>
@@ -2491,7 +2764,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>18</v>
       </c>
@@ -2499,7 +2772,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>19</v>
       </c>
@@ -2507,7 +2780,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>20</v>
       </c>
@@ -2515,7 +2788,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>21</v>
       </c>
@@ -2523,7 +2796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>22</v>
       </c>
@@ -2531,7 +2804,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>23</v>
       </c>
@@ -2539,7 +2812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>24</v>
       </c>
@@ -2547,10 +2820,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="17" customFormat="1">
+    <row r="117" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C117" s="23"/>
     </row>
-    <row r="118" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="118" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="14" t="s">
         <v>230</v>
       </c>
@@ -2559,7 +2832,7 @@
       </c>
       <c r="C118" s="21"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>1</v>
       </c>
@@ -2567,7 +2840,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>2</v>
       </c>
@@ -2575,7 +2848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>3</v>
       </c>
@@ -2583,7 +2856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>4</v>
       </c>
@@ -2591,7 +2864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>5</v>
       </c>
@@ -2599,7 +2872,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>6</v>
       </c>
@@ -2607,7 +2880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>7</v>
       </c>
@@ -2615,7 +2888,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>8</v>
       </c>
@@ -2623,7 +2896,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>9</v>
       </c>
@@ -2631,7 +2904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>10</v>
       </c>
@@ -2639,7 +2912,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>11</v>
       </c>
@@ -2647,7 +2920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>12</v>
       </c>
@@ -2655,7 +2928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>13</v>
       </c>
@@ -2663,7 +2936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>14</v>
       </c>
@@ -2671,7 +2944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>15</v>
       </c>
@@ -2679,10 +2952,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="17" customFormat="1">
+    <row r="134" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C134" s="23"/>
     </row>
-    <row r="135" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="135" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="14" t="s">
         <v>230</v>
       </c>
@@ -2691,7 +2964,7 @@
       </c>
       <c r="C135" s="21"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="7">
         <v>1</v>
       </c>
@@ -2699,7 +2972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>2</v>
       </c>
@@ -2707,7 +2980,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>3</v>
       </c>
@@ -2715,7 +2988,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>4</v>
       </c>
@@ -2723,7 +2996,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>5</v>
       </c>
@@ -2731,7 +3004,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="7">
         <v>6</v>
       </c>
@@ -2739,7 +3012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="7">
         <v>7</v>
       </c>
@@ -2747,7 +3020,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="7">
         <v>8</v>
       </c>
@@ -2755,7 +3028,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>9</v>
       </c>
@@ -2763,7 +3036,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="7">
         <v>10</v>
       </c>
@@ -2771,7 +3044,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="7">
         <v>11</v>
       </c>
@@ -2779,7 +3052,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="7">
         <v>12</v>
       </c>
@@ -2787,7 +3060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>13</v>
       </c>
@@ -2795,7 +3068,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>14</v>
       </c>
@@ -2803,7 +3076,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>15</v>
       </c>
@@ -2811,7 +3084,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>16</v>
       </c>
@@ -2819,10 +3092,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="17" customFormat="1">
+    <row r="152" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C152" s="23"/>
     </row>
-    <row r="153" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="153" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="14" t="s">
         <v>230</v>
       </c>
@@ -2831,7 +3104,7 @@
       </c>
       <c r="C153" s="21"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>1</v>
       </c>
@@ -2839,7 +3112,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>2</v>
       </c>
@@ -2847,7 +3120,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
         <v>3</v>
       </c>
@@ -2855,7 +3128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>4</v>
       </c>
@@ -2863,7 +3136,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
         <v>5</v>
       </c>
@@ -2871,7 +3144,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="7">
         <v>6</v>
       </c>
@@ -2879,7 +3152,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="7">
         <v>7</v>
       </c>
@@ -2887,7 +3160,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>8</v>
       </c>
@@ -2895,7 +3168,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>9</v>
       </c>
@@ -2903,7 +3176,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>10</v>
       </c>
@@ -2911,7 +3184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="7">
         <v>11</v>
       </c>
@@ -2919,7 +3192,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
         <v>12</v>
       </c>
@@ -2927,7 +3200,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>13</v>
       </c>
@@ -2935,7 +3208,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>14</v>
       </c>
@@ -2943,7 +3216,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
         <v>15</v>
       </c>
@@ -2951,7 +3224,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>16</v>
       </c>
@@ -2959,7 +3232,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
         <v>17</v>
       </c>
@@ -2967,7 +3240,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="7">
         <v>18</v>
       </c>
@@ -2975,7 +3248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>19</v>
       </c>
@@ -2983,7 +3256,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>20</v>
       </c>
@@ -2991,10 +3264,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="17" customFormat="1">
+    <row r="174" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C174" s="23"/>
     </row>
-    <row r="175" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="175" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="14" t="s">
         <v>230</v>
       </c>
@@ -3003,7 +3276,7 @@
       </c>
       <c r="C175" s="21"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>1</v>
       </c>
@@ -3011,7 +3284,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>2</v>
       </c>
@@ -3019,7 +3292,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>3</v>
       </c>
@@ -3027,7 +3300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>4</v>
       </c>
@@ -3035,7 +3308,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>5</v>
       </c>
@@ -3043,7 +3316,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>6</v>
       </c>
@@ -3051,7 +3324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
         <v>7</v>
       </c>
@@ -3059,7 +3332,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>8</v>
       </c>
@@ -3067,7 +3340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>9</v>
       </c>
@@ -3075,7 +3348,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>10</v>
       </c>
@@ -3083,7 +3356,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>11</v>
       </c>
@@ -3091,7 +3364,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
         <v>12</v>
       </c>
@@ -3099,7 +3372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="7">
         <v>13</v>
       </c>
@@ -3107,7 +3380,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="7">
         <v>14</v>
       </c>
@@ -3115,7 +3388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>15</v>
       </c>
@@ -3123,7 +3396,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>16</v>
       </c>
@@ -3131,10 +3404,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="17" customFormat="1">
+    <row r="192" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C192" s="23"/>
     </row>
-    <row r="193" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="193" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="14" t="s">
         <v>230</v>
       </c>
@@ -3143,7 +3416,7 @@
       </c>
       <c r="C193" s="21"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>1</v>
       </c>
@@ -3151,7 +3424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>2</v>
       </c>
@@ -3159,7 +3432,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>3</v>
       </c>
@@ -3167,7 +3440,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>4</v>
       </c>
@@ -3175,7 +3448,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>5</v>
       </c>
@@ -3183,7 +3456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>6</v>
       </c>
@@ -3191,7 +3464,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>7</v>
       </c>
@@ -3199,7 +3472,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>8</v>
       </c>
@@ -3207,7 +3480,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>9</v>
       </c>
@@ -3215,7 +3488,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>10</v>
       </c>
@@ -3223,7 +3496,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>11</v>
       </c>
@@ -3231,7 +3504,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>12</v>
       </c>
@@ -3239,7 +3512,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>13</v>
       </c>
@@ -3247,10 +3520,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="17" customFormat="1">
+    <row r="207" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C207" s="23"/>
     </row>
-    <row r="208" spans="1:3" s="24" customFormat="1" ht="26.25">
+    <row r="208" spans="1:3" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="14" t="s">
         <v>230</v>
       </c>
@@ -3259,7 +3532,7 @@
       </c>
       <c r="C208" s="21"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="13">
         <v>1</v>
       </c>
@@ -3267,7 +3540,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="13">
         <v>2</v>
       </c>
@@ -3275,7 +3548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="13">
         <v>3</v>
       </c>
@@ -3283,7 +3556,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="13">
         <v>4</v>
       </c>
@@ -3291,7 +3564,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="13">
         <v>5</v>
       </c>
@@ -3299,7 +3572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="13">
         <v>6</v>
       </c>
@@ -3307,7 +3580,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="13">
         <v>7</v>
       </c>
@@ -3315,7 +3588,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="13">
         <v>8</v>
       </c>
@@ -3323,7 +3596,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="13">
         <v>9</v>
       </c>
